--- a/Data/Imaging.xlsx
+++ b/Data/Imaging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Hang Xu\Publication 1 - Hang Xu\License and Scripts\Scripts and license\Script\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D2EC5-D9D1-42F5-BD5E-6B04CF5CF35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0622F-2F20-4FA7-94EA-AFCD8D311A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34989" yWindow="2837" windowWidth="28800" windowHeight="15412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4011" yWindow="1449" windowWidth="28800" windowHeight="15411" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>UCLA_001</t>
   </si>
@@ -37,6 +37,117 @@
   </si>
   <si>
     <t>IP_PATIENT_ID</t>
+  </si>
+  <si>
+    <t>IP_ENC_ID</t>
+  </si>
+  <si>
+    <t>IP_ORDER_PROC_ID</t>
+  </si>
+  <si>
+    <t>ORDER_TIME</t>
+  </si>
+  <si>
+    <t>RESULT_TIME</t>
+  </si>
+  <si>
+    <t>PROCEDURE_ID</t>
+  </si>
+  <si>
+    <t>PROCEDURE_NAME</t>
+  </si>
+  <si>
+    <t>ACCESSION_NUMBER</t>
+  </si>
+  <si>
+    <t>ENC_001</t>
+  </si>
+  <si>
+    <t>ENC_002</t>
+  </si>
+  <si>
+    <t>ENC_003</t>
+  </si>
+  <si>
+    <t>ENC_004</t>
+  </si>
+  <si>
+    <t>ENC_005</t>
+  </si>
+  <si>
+    <t>ENC_006</t>
+  </si>
+  <si>
+    <t>ENC_007</t>
+  </si>
+  <si>
+    <t>ENC_008</t>
+  </si>
+  <si>
+    <t>ENC_009</t>
+  </si>
+  <si>
+    <t>ORDER_001</t>
+  </si>
+  <si>
+    <t>ORDER_002</t>
+  </si>
+  <si>
+    <t>ORDER_003</t>
+  </si>
+  <si>
+    <t>ORDER_004</t>
+  </si>
+  <si>
+    <t>ORDER_005</t>
+  </si>
+  <si>
+    <t>ORDER_006</t>
+  </si>
+  <si>
+    <t>ORDER_007</t>
+  </si>
+  <si>
+    <t>ORDER_008</t>
+  </si>
+  <si>
+    <t>ORDER_009</t>
+  </si>
+  <si>
+    <t>TRANSTHORACIC ECHO ADULT COMPLETE</t>
+  </si>
+  <si>
+    <t>acc_001</t>
+  </si>
+  <si>
+    <t>acc_002</t>
+  </si>
+  <si>
+    <t>acc_003</t>
+  </si>
+  <si>
+    <t>acc_004</t>
+  </si>
+  <si>
+    <t>acc_005</t>
+  </si>
+  <si>
+    <t>acc_006</t>
+  </si>
+  <si>
+    <t>acc_007</t>
+  </si>
+  <si>
+    <t>acc_008</t>
+  </si>
+  <si>
+    <t>acc_009</t>
+  </si>
+  <si>
+    <t>CT CHEST  WO CONTRAST</t>
+  </si>
+  <si>
+    <t>OUTSIDE MRI CHEST</t>
   </si>
 </sst>
 </file>
@@ -78,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,136 +472,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.921875" customWidth="1"/>
     <col min="2" max="2" width="17.3046875" customWidth="1"/>
+    <col min="3" max="3" width="19.765625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" customWidth="1"/>
+    <col min="6" max="6" width="16.4609375" customWidth="1"/>
+    <col min="7" max="7" width="27.15234375" customWidth="1"/>
+    <col min="8" max="8" width="21.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="F2">
+        <v>499</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44928</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44928</v>
+      </c>
+      <c r="F3">
+        <v>725821</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44929</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44929</v>
+      </c>
+      <c r="F4">
+        <v>33808</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44930</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F5">
+        <v>499</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44931</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44931</v>
+      </c>
+      <c r="F6">
+        <v>725821</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44932</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44932</v>
+      </c>
+      <c r="F7">
+        <v>33808</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44933</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44933</v>
+      </c>
+      <c r="F8">
+        <v>499</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44934</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44934</v>
+      </c>
+      <c r="F9">
+        <v>725821</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>2</v>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44935</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44935</v>
+      </c>
+      <c r="F10">
+        <v>33808</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
